--- a/DungeonsAndDragons/resources/HazelBattleCard.xlsx
+++ b/DungeonsAndDragons/resources/HazelBattleCard.xlsx
@@ -24,65 +24,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Hazel</t>
   </si>
   <si>
-    <t>Level 1 Controller</t>
-  </si>
-  <si>
     <t>Medium Shifter Druid</t>
   </si>
   <si>
-    <t>+4 vs Will; Each creature in area burst 1 within 10 squares</t>
-  </si>
-  <si>
     <t>Target can't gain combat advantage for 1 turn. And will</t>
   </si>
   <si>
-    <t>take 9 psychic damage if next attack doesn't include my</t>
-  </si>
-  <si>
     <t>ally nearest to it as a target.</t>
   </si>
   <si>
-    <t>+4 vs Fortitude; 1d6 cold damage, and you slide the enemy</t>
-  </si>
-  <si>
     <t>1 square.</t>
   </si>
   <si>
-    <t>+4 vs Reflex; 1d8+4 damage, and the target is slowed</t>
-  </si>
-  <si>
     <t>until the end of your next turn.</t>
   </si>
   <si>
     <t>target is immobilized until the end of your next turn.</t>
   </si>
   <si>
-    <t>Ranged 10; +4 vs Fortitude; 1d6 + 6 cold damage, and the</t>
-  </si>
-  <si>
-    <t>+4 vs Reflex; Each enemy in burst 1 within 10 squares</t>
-  </si>
-  <si>
-    <t>1d6 + 4 fire damage, and ongoing 5 fire damage (save ends)</t>
-  </si>
-  <si>
     <t>If the target drops to 0 hp before it saves against fire</t>
   </si>
   <si>
     <t>damage, one creature within 5 squares of the target</t>
   </si>
   <si>
-    <t>regains 7 hp.  After effect: One creature within 5 squares</t>
-  </si>
-  <si>
-    <t>regains 2 hp.  Miss: Half damage.</t>
-  </si>
-  <si>
     <t>Change from humanoid form to beast form and vice versa.</t>
   </si>
   <si>
@@ -98,9 +68,6 @@
     <t>you gain a +1 bonus to AC and Reflex.</t>
   </si>
   <si>
-    <t>9 nat, 4 perc, 1 rel, 3 stealth, 1 thievery</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -133,6 +100,216 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chill Wind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (standard; at-will) - Implement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grasping Claws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (standard; at-will) - Beast Form, Implement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frost Flash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (standard; Encounter) - Implement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fires of Life</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (standard; Daily) - Implement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wild Shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (minor; once per round) - Personal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Razorclaw Shifting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (minor; Encounter) - Personal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alignment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Good</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Languages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Common, Draconic</t>
+    </r>
+  </si>
+  <si>
+    <t>Level 2 Controller</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Initiative</t>
     </r>
     <r>
@@ -143,7 +320,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> +1</t>
+      <t xml:space="preserve"> +2</t>
     </r>
   </si>
   <si>
@@ -166,7 +343,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Perception +4; low-light vision</t>
+      <t xml:space="preserve"> Perception +5; low-light vision</t>
     </r>
   </si>
   <si>
@@ -189,7 +366,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 26; </t>
+      <t xml:space="preserve"> 31; </t>
     </r>
     <r>
       <rPr>
@@ -210,7 +387,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 13</t>
+      <t xml:space="preserve"> 15</t>
     </r>
   </si>
   <si>
@@ -233,7 +410,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 11; </t>
+      <t xml:space="preserve"> 12; </t>
     </r>
     <r>
       <rPr>
@@ -254,7 +431,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 12; </t>
+      <t xml:space="preserve"> 13; </t>
     </r>
     <r>
       <rPr>
@@ -275,7 +452,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 12; </t>
+      <t xml:space="preserve"> 13; </t>
     </r>
     <r>
       <rPr>
@@ -296,215 +473,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 15</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Speed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chill Wind</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (standard; at-will) - Implement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Grasping Claws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (standard; at-will) - Beast Form, Implement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Frost Flash</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (standard; Encounter) - Implement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fires of Life</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (standard; Daily) - Implement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Wild Shape</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (minor; once per round) - Personal</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Razorclaw Shifting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (minor; Encounter) - Personal</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alignment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Good</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Languages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Common, Draconic</t>
-    </r>
+      <t xml:space="preserve"> 16</t>
+    </r>
+  </si>
+  <si>
+    <t>+5 vs Will; Each creature in area burst 1 within 10 squares</t>
+  </si>
+  <si>
+    <t>take 10 psychic damage if next attack doesn't include my</t>
+  </si>
+  <si>
+    <t>+5 vs Fortitude; 1d6 cold damage, and you slide the enemy</t>
+  </si>
+  <si>
+    <t>+5 vs Reflex; 1d8+5 damage, and the target is slowed</t>
+  </si>
+  <si>
+    <t>Ranged 10; +5 vs Fortitude; 1d6 + 8 cold damage, and the</t>
+  </si>
+  <si>
+    <t>Jim, this is +8 because Primal Guardian!</t>
+  </si>
+  <si>
+    <t>+5 vs Reflex; Each enemy in burst 1 within 10 squares</t>
+  </si>
+  <si>
+    <t>1d6 + 5 fire damage, and ongoing 5 fire damage (save ends)</t>
+  </si>
+  <si>
+    <t>regains 8 hp.  After effect: One creature within 5 squares</t>
+  </si>
+  <si>
+    <t>regains 3 hp.  Miss: Half damage.</t>
   </si>
   <si>
     <r>
@@ -526,8 +526,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 1 acro, 6 arc, 3 ath, 4 dun, 2 end, 9 heal, 1 hist, 9 ins</t>
-    </r>
+      <t xml:space="preserve"> 2 acro, 7 arc, 4 ath, 1 blf, 1 dip, 5 dun, 3 end, 10 heal,</t>
+    </r>
+  </si>
+  <si>
+    <t>2 hist, 10 ins, 1 int, 10 nat, 5 perc, 2 rel, 4 stth, 1 str, 2 thv</t>
   </si>
   <si>
     <r>
@@ -549,7 +552,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 13 (+1)</t>
+      <t xml:space="preserve"> 13 (+2)</t>
     </r>
   </si>
   <si>
@@ -572,7 +575,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 14 (+2)</t>
+      <t xml:space="preserve"> 14 (+3)</t>
     </r>
   </si>
   <si>
@@ -595,7 +598,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 13 (+1)</t>
+      <t xml:space="preserve"> 13 (+2)</t>
     </r>
   </si>
   <si>
@@ -618,7 +621,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 12 (+1)</t>
+      <t xml:space="preserve"> 12 (+2)</t>
     </r>
   </si>
   <si>
@@ -641,7 +644,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 18 (+4)</t>
+      <t xml:space="preserve"> 18 (+5)</t>
     </r>
   </si>
   <si>
@@ -664,7 +667,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 10 (+0)</t>
+      <t xml:space="preserve"> 10 (+1)</t>
     </r>
   </si>
 </sst>
@@ -1319,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1341,12 +1344,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1354,17 +1357,17 @@
     </row>
     <row r="3" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1372,7 +1375,7 @@
     </row>
     <row r="5" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1380,7 +1383,7 @@
     </row>
     <row r="6" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1389,7 +1392,7 @@
     <row r="7" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1397,7 +1400,7 @@
     <row r="8" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1405,7 +1408,7 @@
     <row r="9" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1413,7 +1416,7 @@
     <row r="10" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1421,14 +1424,14 @@
     <row r="11" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1436,7 +1439,7 @@
     <row r="13" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1444,14 +1447,14 @@
     <row r="14" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1459,133 +1462,136 @@
     <row r="16" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1593,7 +1599,7 @@
     </row>
     <row r="33" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1601,7 +1607,7 @@
     </row>
     <row r="34" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1609,11 +1615,11 @@
     </row>
     <row r="35" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D35" s="4"/>
     </row>
@@ -1628,33 +1634,33 @@
     <row r="37" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
